--- a/biology/Botanique/Cyrtosia_(plante)/Cyrtosia_(plante).xlsx
+++ b/biology/Botanique/Cyrtosia_(plante)/Cyrtosia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleistes est un genre d'orchidées asiatiques de la sous-famille des Vanilloideae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des herbacées mycotrophes au rhizome robuste, avec des racines charnues ou parfois tubéreuses. Les tiges sont dressées, souvent plusieurs à partir d'un rhizome, simples ou ramifiées, brun jaunâtre à brun rougeâtre, charnues, avec des écailles aux nœuds[1].
-L'inflorescence est un racème ou une panicule terminale ou latérale, à plusieurs fleurs ; le rachis est légèrement poilu ou farineux ; les bractées florales sont persistantes. Les fleurs, de taille moyenne, ne s'ouvrent pas complètement. Les sépales et les pétales sont connivents ; les sépales sont souvent plus ou moins poilus abaxialement. Les pétales sont glabres ; la lèvre est dressée, non lobée, sans éperon, la base connivente à la colonne, embrassant plus ou moins la colonne. La colonne est légèrement incurvée, robuste, la partie supérieure élargie, sans pied ; l'anthère est terminale, incombante, à deux locules ; il y a deux pollinies granuleuses-farinacées, sans caudicule ni viscidium. Le fruit est charnu, indéhiscent. Les graines ont un testa robuste, sans aile ou avec une aile étroite autour[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des herbacées mycotrophes au rhizome robuste, avec des racines charnues ou parfois tubéreuses. Les tiges sont dressées, souvent plusieurs à partir d'un rhizome, simples ou ramifiées, brun jaunâtre à brun rougeâtre, charnues, avec des écailles aux nœuds.
+L'inflorescence est un racème ou une panicule terminale ou latérale, à plusieurs fleurs ; le rachis est légèrement poilu ou farineux ; les bractées florales sont persistantes. Les fleurs, de taille moyenne, ne s'ouvrent pas complètement. Les sépales et les pétales sont connivents ; les sépales sont souvent plus ou moins poilus abaxialement. Les pétales sont glabres ; la lèvre est dressée, non lobée, sans éperon, la base connivente à la colonne, embrassant plus ou moins la colonne. La colonne est légèrement incurvée, robuste, la partie supérieure élargie, sans pied ; l'anthère est terminale, incombante, à deux locules ; il y a deux pollinies granuleuses-farinacées, sans caudicule ni viscidium. Le fruit est charnu, indéhiscent. Les graines ont un testa robuste, sans aile ou avec une aile étroite autour.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est endémique d'Asie. Il se rencontre en particulier en Asie du Sud-Est, à l'ouest jusqu'en Himalaya, à l'est et au nord jusqu'au Japon, au sud jusqu'en Nouvelle-Guinée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est endémique d'Asie. Il se rencontre en particulier en Asie du Sud-Est, à l'ouest jusqu'en Himalaya, à l'est et au nord jusqu'au Japon, au sud jusqu'en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (2 novembre 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (2 novembre 2023) :
 Cyrtosia falconeri (Hook.f.) Aver.
 Cyrtosia integra (Rolfe ex Downie) Garay
 Cyrtosia javanica Blume
@@ -611,9 +629,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cyrtosia a été décrit en 1825 par le botaniste germano-hollandais Carl Ludwig Blume (1796-1862)[3]. L'espèce type décrite en même temps, Cyrtosia javanica, a été désignée en 1873 par Pfeiffer[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cyrtosia a été décrit en 1825 par le botaniste germano-hollandais Carl Ludwig Blume (1796-1862). L'espèce type décrite en même temps, Cyrtosia javanica, a été désignée en 1873 par Pfeiffer.
 </t>
         </is>
       </c>
